--- a/data_quarter/zb/工业/工业产能利用率/按三大门类分工业产能利用率.xlsx
+++ b/data_quarter/zb/工业/工业产能利用率/按三大门类分工业产能利用率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,11 +514,31 @@
           <t>工业产能利用率_采矿业_累计值</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_制造业</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_电力、热力、燃气及水生产和供应业</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_采矿业</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -553,121 +573,149 @@
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.3</v>
+        <v>78.8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="E3" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="M3" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="F3" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>77.59999999999999</v>
-      </c>
       <c r="N3" t="n">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>75.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.8</v>
+        <v>77.3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="D4" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="E4" t="n">
-        <v>78.2</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>78.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>74.7</v>
+        <v>75.3</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>74.59999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="M4" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>76</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="R4" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="N4" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>75.8</v>
+      <c r="S4" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="T4" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.1000000000000085</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -717,6 +765,18 @@
       </c>
       <c r="Q5" t="n">
         <v>76.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="T5" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.2999999999999972</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/工业/工业产能利用率/按三大门类分工业产能利用率.xlsx
+++ b/data_quarter/zb/工业/工业产能利用率/按三大门类分工业产能利用率.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,26 +514,6 @@
           <t>工业产能利用率_采矿业_累计值</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_制造业</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_电力、热力、燃气及水生产和供应业</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_采矿业</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -573,143 +553,115 @@
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.8</v>
+        <v>77.3</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="E3" t="n">
-        <v>78.2</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>78.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>74.7</v>
+        <v>75.3</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>74.59999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="M3" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>76.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="P3" t="n">
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="R3" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="T3" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>75.8</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.3</v>
+        <v>78.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="E4" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="M4" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="F4" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="M4" t="n">
-        <v>77.59999999999999</v>
-      </c>
       <c r="N4" t="n">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="R4" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="T4" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.1000000000000085</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="5">
@@ -765,18 +717,6 @@
       </c>
       <c r="Q5" t="n">
         <v>76.2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="T5" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.2999999999999972</v>
       </c>
     </row>
   </sheetData>
